--- a/metadados_fotos.xlsx
+++ b/metadados_fotos.xlsx
@@ -1,87 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
-  <si>
-    <t>Nome do Arquivo</t>
-  </si>
-  <si>
-    <t>Data e Hora</t>
-  </si>
-  <si>
-    <t>Latitude</t>
-  </si>
-  <si>
-    <t>Longitude</t>
-  </si>
-  <si>
-    <t>Endereço</t>
-  </si>
-  <si>
-    <t>GP1.JPG</t>
-  </si>
-  <si>
-    <t>2025-02-06 14:30:16</t>
-  </si>
-  <si>
-    <t>Avenida Mário Jorge Menezes Vieira, Coroa do Meio, Aracaju, Região Geográfica Imediata de Aracaju, Região Geográfica Intermediária de Aracaju, Sergipe, Região Nordeste, 49035-660, Brasil</t>
-  </si>
-  <si>
-    <t>GP2.JPG</t>
-  </si>
-  <si>
-    <t>2025-02-06 14:30:15</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -93,31 +46,84 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -126,10 +132,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -167,71 +173,69 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -255,53 +259,54 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="51000"/>
+                <a:shade val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
+                <a:shade val="93000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="94000"/>
+                <a:shade val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="9500"/>
+              <a:shade val="95000"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -311,7 +316,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -320,7 +325,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -329,7 +334,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -337,10 +342,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -369,7 +374,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="20000"/>
+                <a:shade val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -382,12 +387,13 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
+                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -405,75 +411,100 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="0"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="3" width="20.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="25.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="13.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="3" width="225.57642857142858" customWidth="1" bestFit="1"/>
+    <col width="20.4" customWidth="1" min="1" max="1"/>
+    <col width="25.2" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="13.2" customWidth="1" min="4" max="4"/>
+    <col width="225.6" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nome do Arquivo</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Data e Hora</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Latitude</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Longitude</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Endereço</t>
+        </is>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2">
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>GP1.JPG</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 14:30:16</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="n">
         <v>-10.9557</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1" t="n">
         <v>-37.0446</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>Avenida Mário Jorge Menezes Vieira, Coroa do Meio, Aracaju, Região Geográfica Imediata de Aracaju, Região Geográfica Intermediária de Aracaju, Sergipe, Região Nordeste, 49035-660, Brasil</t>
+        </is>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2">
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>GP2.JPG</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 14:30:15</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="n">
         <v>-10.9557</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1" t="n">
         <v>-37.0446</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>Avenida Mário Jorge Menezes Vieira, Coroa do Meio, Aracaju, Região Geográfica Imediata de Aracaju, Região Geográfica Intermediária de Aracaju, Sergipe, Região Nordeste, 49035-660, Brasil</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/metadados_fotos.xlsx
+++ b/metadados_fotos.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -428,7 +428,7 @@
     <col width="25.2" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
     <col width="13.2" customWidth="1" min="4" max="4"/>
-    <col width="225.6" customWidth="1" min="5" max="5"/>
+    <col width="268.8" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -461,46 +461,1702 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>GP1.JPG</t>
+          <t>GPAA0195.JPG</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>2025-02-06 14:30:16</t>
+          <t>2025-02-11 17:19:44</t>
         </is>
       </c>
       <c r="C2" s="1" t="n">
-        <v>-10.9557</v>
+        <v>-10.9454</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>-37.0446</v>
+        <v>-37.0459</v>
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>Avenida Mário Jorge Menezes Vieira, Coroa do Meio, Aracaju, Região Geográfica Imediata de Aracaju, Região Geográfica Intermediária de Aracaju, Sergipe, Região Nordeste, 49035-660, Brasil</t>
+          <t>Avenida Delmiro Golveia, Coroa do Meio, Aracaju, Região Geográfica Imediata de Aracaju, Região Geográfica Intermediária de Aracaju, Sergipe, Região Nordeste, 49036-245, Brasil</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>GP2.JPG</t>
+          <t>GPAA0196.JPG</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>2025-02-06 14:30:15</t>
+          <t>2025-02-11 17:19:49</t>
         </is>
       </c>
       <c r="C3" s="1" t="n">
-        <v>-10.9557</v>
+        <v>-10.9453</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>-37.0446</v>
+        <v>-37.0459</v>
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
-          <t>Avenida Mário Jorge Menezes Vieira, Coroa do Meio, Aracaju, Região Geográfica Imediata de Aracaju, Região Geográfica Intermediária de Aracaju, Sergipe, Região Nordeste, 49035-660, Brasil</t>
+          <t>Avenida Delmiro Golveia, Coroa do Meio, Aracaju, Região Geográfica Imediata de Aracaju, Região Geográfica Intermediária de Aracaju, Sergipe, Região Nordeste, 49036-245, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>GPAA0197.JPG</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-11 17:19:54</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>-10.945</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>-37.0461</v>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>Avenida Delmiro Golveia, Coroa do Meio, Aracaju, Região Geográfica Imediata de Aracaju, Região Geográfica Intermediária de Aracaju, Sergipe, Região Nordeste, 49036-245, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>GPAA0198.JPG</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-11 17:19:59</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>-10.9449</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>-37.0462</v>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>Avenida Delmiro Golveia, Coroa do Meio, Aracaju, Região Geográfica Imediata de Aracaju, Região Geográfica Intermediária de Aracaju, Sergipe, Região Nordeste, 49036-245, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>GPAA0199.JPG</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-11 17:20:04</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>-10.9447</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>-37.0463</v>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>Avenida Delmiro Golveia, Coroa do Meio, Aracaju, Região Geográfica Imediata de Aracaju, Região Geográfica Intermediária de Aracaju, Sergipe, Região Nordeste, 49036-245, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>GPAA0200.JPG</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-11 17:20:09</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>-10.9445</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>-37.0464</v>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>Avenida Delmiro Golveia, Coroa do Meio, Aracaju, Região Geográfica Imediata de Aracaju, Região Geográfica Intermediária de Aracaju, Sergipe, Região Nordeste, 49036-245, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>GPAA0201.JPG</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-11 17:20:14</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>-10.9444</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>-37.0465</v>
+      </c>
+      <c r="E8" s="1" t="inlineStr">
+        <is>
+          <t>Avenida Delmiro Golveia, Coroa do Meio, Aracaju, Região Geográfica Imediata de Aracaju, Região Geográfica Intermediária de Aracaju, Sergipe, Região Nordeste, 49036-245, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>GPAA0202.JPG</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-11 17:20:19</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>-10.9442</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>-37.0466</v>
+      </c>
+      <c r="E9" s="1" t="inlineStr">
+        <is>
+          <t>Avenida Delmiro Golveia, Coroa do Meio, Aracaju, Região Geográfica Imediata de Aracaju, Região Geográfica Intermediária de Aracaju, Sergipe, Região Nordeste, 49036-245, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>GPAA0203.JPG</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-11 17:20:24</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>-10.9442</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>-37.0467</v>
+      </c>
+      <c r="E10" s="1" t="inlineStr">
+        <is>
+          <t>Avenida Delmiro Golveia, Coroa do Meio, Aracaju, Região Geográfica Imediata de Aracaju, Região Geográfica Intermediária de Aracaju, Sergipe, Região Nordeste, 49036-245, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>GPAA0204.JPG</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-11 17:20:29</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>-10.9442</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>-37.0467</v>
+      </c>
+      <c r="E11" s="1" t="inlineStr">
+        <is>
+          <t>Avenida Delmiro Golveia, Coroa do Meio, Aracaju, Região Geográfica Imediata de Aracaju, Região Geográfica Intermediária de Aracaju, Sergipe, Região Nordeste, 49036-245, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>GPAA0205.JPG</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-11 17:20:34</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>-10.9442</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>-37.0467</v>
+      </c>
+      <c r="E12" s="1" t="inlineStr">
+        <is>
+          <t>Avenida Delmiro Golveia, Coroa do Meio, Aracaju, Região Geográfica Imediata de Aracaju, Região Geográfica Intermediária de Aracaju, Sergipe, Região Nordeste, 49036-245, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>GPAA0206.JPG</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-11 17:20:39</t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>-10.9442</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>-37.0467</v>
+      </c>
+      <c r="E13" s="1" t="inlineStr">
+        <is>
+          <t>Avenida Delmiro Golveia, Coroa do Meio, Aracaju, Região Geográfica Imediata de Aracaju, Região Geográfica Intermediária de Aracaju, Sergipe, Região Nordeste, 49036-245, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>GPAA0207.JPG</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-11 17:20:44</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>-10.9441</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>-37.0467</v>
+      </c>
+      <c r="E14" s="1" t="inlineStr">
+        <is>
+          <t>Avenida Delmiro Golveia, Coroa do Meio, Aracaju, Região Geográfica Imediata de Aracaju, Região Geográfica Intermediária de Aracaju, Sergipe, Região Nordeste, 49036-245, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>GPAA0208.JPG</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-11 17:20:49</t>
+        </is>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>-10.9441</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>-37.0467</v>
+      </c>
+      <c r="E15" s="1" t="inlineStr">
+        <is>
+          <t>Avenida Delmiro Golveia, Coroa do Meio, Aracaju, Região Geográfica Imediata de Aracaju, Região Geográfica Intermediária de Aracaju, Sergipe, Região Nordeste, 49036-245, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>GPAB0209.JPG</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-11 17:21:09</t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>-10.9441</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>-37.0467</v>
+      </c>
+      <c r="E16" s="1" t="inlineStr">
+        <is>
+          <t>Avenida Delmiro Golveia, Coroa do Meio, Aracaju, Região Geográfica Imediata de Aracaju, Região Geográfica Intermediária de Aracaju, Sergipe, Região Nordeste, 49036-245, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>GPAB0210.JPG</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-11 17:21:20</t>
+        </is>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>-10.9441</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>-37.0468</v>
+      </c>
+      <c r="E17" s="1" t="inlineStr">
+        <is>
+          <t>Avenida Delmiro Golveia, Coroa do Meio, Aracaju, Região Geográfica Imediata de Aracaju, Região Geográfica Intermediária de Aracaju, Sergipe, Região Nordeste, 49036-245, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>GPAB0211.JPG</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-11 17:21:30</t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>-10.9441</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>-37.0468</v>
+      </c>
+      <c r="E18" s="1" t="inlineStr">
+        <is>
+          <t>Avenida Delmiro Golveia, Coroa do Meio, Aracaju, Região Geográfica Imediata de Aracaju, Região Geográfica Intermediária de Aracaju, Sergipe, Região Nordeste, 49036-245, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>GPAB0212.JPG</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-11 17:21:40</t>
+        </is>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>-10.9441</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>-37.0468</v>
+      </c>
+      <c r="E19" s="1" t="inlineStr">
+        <is>
+          <t>Avenida Delmiro Golveia, Coroa do Meio, Aracaju, Região Geográfica Imediata de Aracaju, Região Geográfica Intermediária de Aracaju, Sergipe, Região Nordeste, 49036-245, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>GPAB0213.JPG</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-11 17:21:50</t>
+        </is>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>-10.944</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>-37.0469</v>
+      </c>
+      <c r="E20" s="1" t="inlineStr">
+        <is>
+          <t>Avenida Delmiro Golveia, Coroa do Meio, Aracaju, Região Geográfica Imediata de Aracaju, Região Geográfica Intermediária de Aracaju, Sergipe, Região Nordeste, 49036-245, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>GPAB0214.JPG</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-11 17:22:00</t>
+        </is>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>-10.9436</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>-37.0472</v>
+      </c>
+      <c r="E21" s="1" t="inlineStr">
+        <is>
+          <t>Avenida Delmiro Golveia, Coroa do Meio, Aracaju, Região Geográfica Imediata de Aracaju, Região Geográfica Intermediária de Aracaju, Sergipe, Região Nordeste, 49036-245, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>GPAB0215.JPG</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-11 17:22:10</t>
+        </is>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>-10.9431</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>-37.0478</v>
+      </c>
+      <c r="E22" s="1" t="inlineStr">
+        <is>
+          <t>Shopping Riomar, 400, Avenida Delmiro Golveia, Coroa do Meio, Aracaju, Região Geográfica Imediata de Aracaju, Região Geográfica Intermediária de Aracaju, Sergipe, Região Nordeste, 49035-500, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>GPAB0216.JPG</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-11 17:22:20</t>
+        </is>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>-10.9429</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>-37.0479</v>
+      </c>
+      <c r="E23" s="1" t="inlineStr">
+        <is>
+          <t>Avenida Delmiro Golveia, Coroa do Meio, Aracaju, Região Geográfica Imediata de Aracaju, Região Geográfica Intermediária de Aracaju, Sergipe, Região Nordeste, 49036-245, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>GPAB0217.JPG</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-11 17:22:30</t>
+        </is>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>-10.943</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>-37.0479</v>
+      </c>
+      <c r="E24" s="1" t="inlineStr">
+        <is>
+          <t>Avenida Delmiro Golveia, Coroa do Meio, Aracaju, Região Geográfica Imediata de Aracaju, Região Geográfica Intermediária de Aracaju, Sergipe, Região Nordeste, 49036-245, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>GPAB0218.JPG</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-11 17:22:40</t>
+        </is>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>-10.943</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>-37.0479</v>
+      </c>
+      <c r="E25" s="1" t="inlineStr">
+        <is>
+          <t>Avenida Delmiro Golveia, Coroa do Meio, Aracaju, Região Geográfica Imediata de Aracaju, Região Geográfica Intermediária de Aracaju, Sergipe, Região Nordeste, 49036-245, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>GPAB0219.JPG</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-11 17:22:50</t>
+        </is>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>-10.9429</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>-37.048</v>
+      </c>
+      <c r="E26" s="1" t="inlineStr">
+        <is>
+          <t>Avenida Delmiro Golveia, Coroa do Meio, Aracaju, Região Geográfica Imediata de Aracaju, Região Geográfica Intermediária de Aracaju, Sergipe, Região Nordeste, 49036-245, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>GPAB0220.JPG</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-11 17:23:00</t>
+        </is>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>-10.9429</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>-37.0481</v>
+      </c>
+      <c r="E27" s="1" t="inlineStr">
+        <is>
+          <t>Avenida Delmiro Golveia, Coroa do Meio, Aracaju, Região Geográfica Imediata de Aracaju, Região Geográfica Intermediária de Aracaju, Sergipe, Região Nordeste, 49036-245, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>GPAB0221.JPG</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-11 17:23:10</t>
+        </is>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>-10.9429</v>
+      </c>
+      <c r="D28" s="1" t="n">
+        <v>-37.0481</v>
+      </c>
+      <c r="E28" s="1" t="inlineStr">
+        <is>
+          <t>Avenida Delmiro Golveia, Coroa do Meio, Aracaju, Região Geográfica Imediata de Aracaju, Região Geográfica Intermediária de Aracaju, Sergipe, Região Nordeste, 49036-245, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>GPAC0222.JPG</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-11 17:24:09</t>
+        </is>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>-10.9425</v>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>-37.0486</v>
+      </c>
+      <c r="E29" s="1" t="inlineStr">
+        <is>
+          <t>Avenida Delmiro Golveia, Coroa do Meio, Aracaju, Região Geográfica Imediata de Aracaju, Região Geográfica Intermediária de Aracaju, Sergipe, Região Nordeste, 49036-245, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>GPAC0223.JPG</t>
+        </is>
+      </c>
+      <c r="B30" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-11 17:24:19</t>
+        </is>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>-10.9422</v>
+      </c>
+      <c r="D30" s="1" t="n">
+        <v>-37.049</v>
+      </c>
+      <c r="E30" s="1" t="inlineStr">
+        <is>
+          <t>Avenida Delmiro Golveia, Coroa do Meio, Aracaju, Região Geográfica Imediata de Aracaju, Região Geográfica Intermediária de Aracaju, Sergipe, Região Nordeste, 49035-500, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>GPAC0224.JPG</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-11 17:24:29</t>
+        </is>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>-10.942</v>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>-37.0493</v>
+      </c>
+      <c r="E31" s="1" t="inlineStr">
+        <is>
+          <t>Avenida Delmiro Golveia, Coroa do Meio, Aracaju, Região Geográfica Imediata de Aracaju, Região Geográfica Intermediária de Aracaju, Sergipe, Região Nordeste, 49035-500, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>GPAC0225.JPG</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-11 17:24:39</t>
+        </is>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>-10.942</v>
+      </c>
+      <c r="D32" s="1" t="n">
+        <v>-37.0493</v>
+      </c>
+      <c r="E32" s="1" t="inlineStr">
+        <is>
+          <t>Avenida Delmiro Golveia, Coroa do Meio, Aracaju, Região Geográfica Imediata de Aracaju, Região Geográfica Intermediária de Aracaju, Sergipe, Região Nordeste, 49035-500, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>GPAC0226.JPG</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-11 17:24:49</t>
+        </is>
+      </c>
+      <c r="C33" s="1" t="n">
+        <v>-10.942</v>
+      </c>
+      <c r="D33" s="1" t="n">
+        <v>-37.0493</v>
+      </c>
+      <c r="E33" s="1" t="inlineStr">
+        <is>
+          <t>Avenida Delmiro Golveia, Coroa do Meio, Aracaju, Região Geográfica Imediata de Aracaju, Região Geográfica Intermediária de Aracaju, Sergipe, Região Nordeste, 49035-500, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>GPAC0227.JPG</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-11 17:24:59</t>
+        </is>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>-10.942</v>
+      </c>
+      <c r="D34" s="1" t="n">
+        <v>-37.0493</v>
+      </c>
+      <c r="E34" s="1" t="inlineStr">
+        <is>
+          <t>Avenida Delmiro Golveia, Coroa do Meio, Aracaju, Região Geográfica Imediata de Aracaju, Região Geográfica Intermediária de Aracaju, Sergipe, Região Nordeste, 49035-500, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>GPAC0228.JPG</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-11 17:25:09</t>
+        </is>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>-10.942</v>
+      </c>
+      <c r="D35" s="1" t="n">
+        <v>-37.0493</v>
+      </c>
+      <c r="E35" s="1" t="inlineStr">
+        <is>
+          <t>Avenida Delmiro Golveia, Coroa do Meio, Aracaju, Região Geográfica Imediata de Aracaju, Região Geográfica Intermediária de Aracaju, Sergipe, Região Nordeste, 49035-500, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>GPAC0229.JPG</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-11 17:25:19</t>
+        </is>
+      </c>
+      <c r="C36" s="1" t="n">
+        <v>-10.942</v>
+      </c>
+      <c r="D36" s="1" t="n">
+        <v>-37.0493</v>
+      </c>
+      <c r="E36" s="1" t="inlineStr">
+        <is>
+          <t>Avenida Delmiro Golveia, Coroa do Meio, Aracaju, Região Geográfica Imediata de Aracaju, Região Geográfica Intermediária de Aracaju, Sergipe, Região Nordeste, 49035-500, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>GPAC0230.JPG</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-11 17:25:29</t>
+        </is>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>-10.942</v>
+      </c>
+      <c r="D37" s="1" t="n">
+        <v>-37.0493</v>
+      </c>
+      <c r="E37" s="1" t="inlineStr">
+        <is>
+          <t>Avenida Delmiro Golveia, Coroa do Meio, Aracaju, Região Geográfica Imediata de Aracaju, Região Geográfica Intermediária de Aracaju, Sergipe, Região Nordeste, 49035-500, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>GPAC0231.JPG</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-11 17:25:39</t>
+        </is>
+      </c>
+      <c r="C38" s="1" t="n">
+        <v>-10.942</v>
+      </c>
+      <c r="D38" s="1" t="n">
+        <v>-37.0493</v>
+      </c>
+      <c r="E38" s="1" t="inlineStr">
+        <is>
+          <t>Avenida Delmiro Golveia, Coroa do Meio, Aracaju, Região Geográfica Imediata de Aracaju, Região Geográfica Intermediária de Aracaju, Sergipe, Região Nordeste, 49035-500, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>GPAC0232.JPG</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-11 17:25:49</t>
+        </is>
+      </c>
+      <c r="C39" s="1" t="n">
+        <v>-10.942</v>
+      </c>
+      <c r="D39" s="1" t="n">
+        <v>-37.0493</v>
+      </c>
+      <c r="E39" s="1" t="inlineStr">
+        <is>
+          <t>Avenida Delmiro Golveia, Coroa do Meio, Aracaju, Região Geográfica Imediata de Aracaju, Região Geográfica Intermediária de Aracaju, Sergipe, Região Nordeste, 49035-500, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>GPAC0233.JPG</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-11 17:25:59</t>
+        </is>
+      </c>
+      <c r="C40" s="1" t="n">
+        <v>-10.942</v>
+      </c>
+      <c r="D40" s="1" t="n">
+        <v>-37.0493</v>
+      </c>
+      <c r="E40" s="1" t="inlineStr">
+        <is>
+          <t>Avenida Delmiro Golveia, Coroa do Meio, Aracaju, Região Geográfica Imediata de Aracaju, Região Geográfica Intermediária de Aracaju, Sergipe, Região Nordeste, 49035-500, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>GPAC0234.JPG</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-11 17:26:09</t>
+        </is>
+      </c>
+      <c r="C41" s="1" t="n">
+        <v>-10.942</v>
+      </c>
+      <c r="D41" s="1" t="n">
+        <v>-37.0493</v>
+      </c>
+      <c r="E41" s="1" t="inlineStr">
+        <is>
+          <t>Avenida Delmiro Golveia, Coroa do Meio, Aracaju, Região Geográfica Imediata de Aracaju, Região Geográfica Intermediária de Aracaju, Sergipe, Região Nordeste, 49035-500, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>GPAC0235.JPG</t>
+        </is>
+      </c>
+      <c r="B42" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-11 17:26:19</t>
+        </is>
+      </c>
+      <c r="C42" s="1" t="n">
+        <v>-10.9419</v>
+      </c>
+      <c r="D42" s="1" t="n">
+        <v>-37.0494</v>
+      </c>
+      <c r="E42" s="1" t="inlineStr">
+        <is>
+          <t>Avenida Delmiro Golveia, Coroa do Meio, Aracaju, Região Geográfica Imediata de Aracaju, Região Geográfica Intermediária de Aracaju, Sergipe, Região Nordeste, 49035-500, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>GPAC0236.JPG</t>
+        </is>
+      </c>
+      <c r="B43" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-11 17:26:29</t>
+        </is>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>-10.9416</v>
+      </c>
+      <c r="D43" s="1" t="n">
+        <v>-37.0498</v>
+      </c>
+      <c r="E43" s="1" t="inlineStr">
+        <is>
+          <t>Avenida Delmiro Golveia, Jardins, Aracaju, Região Geográfica Imediata de Aracaju, Região Geográfica Intermediária de Aracaju, Sergipe, Região Nordeste, 49035-500, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>GPAC0237.JPG</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-11 17:26:39</t>
+        </is>
+      </c>
+      <c r="C44" s="1" t="n">
+        <v>-10.9413</v>
+      </c>
+      <c r="D44" s="1" t="n">
+        <v>-37.0506</v>
+      </c>
+      <c r="E44" s="1" t="inlineStr">
+        <is>
+          <t>Avenida Paulo Barreto de Menezes, Garcia, Jardins, Aracaju, Região Geográfica Imediata de Aracaju, Região Geográfica Intermediária de Aracaju, Sergipe, Região Nordeste, 49025-330, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>GPAC0238.JPG</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-11 17:26:49</t>
+        </is>
+      </c>
+      <c r="C45" s="1" t="n">
+        <v>-10.9423</v>
+      </c>
+      <c r="D45" s="1" t="n">
+        <v>-37.051</v>
+      </c>
+      <c r="E45" s="1" t="inlineStr">
+        <is>
+          <t>Avenida Paulo Barreto de Menezes, Jardins, Aracaju, Região Geográfica Imediata de Aracaju, Região Geográfica Intermediária de Aracaju, Sergipe, Região Nordeste, 49025-330, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>GPAC0239.JPG</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-11 17:26:59</t>
+        </is>
+      </c>
+      <c r="C46" s="1" t="n">
+        <v>-10.9431</v>
+      </c>
+      <c r="D46" s="1" t="n">
+        <v>-37.0511</v>
+      </c>
+      <c r="E46" s="1" t="inlineStr">
+        <is>
+          <t>Edifício Palm Springs, 2340, Avenida Paulo Barreto de Menezes, Bairro Garcia, Jardins, Aracaju, Região Geográfica Imediata de Aracaju, Região Geográfica Intermediária de Aracaju, Sergipe, Região Nordeste, 49025-330, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>GPAC0240.JPG</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-11 17:27:09</t>
+        </is>
+      </c>
+      <c r="C47" s="1" t="n">
+        <v>-10.9444</v>
+      </c>
+      <c r="D47" s="1" t="n">
+        <v>-37.0511</v>
+      </c>
+      <c r="E47" s="1" t="inlineStr">
+        <is>
+          <t>Avenida Paulo Barreto de Menezes, Jardins, Aracaju, Região Geográfica Imediata de Aracaju, Região Geográfica Intermediária de Aracaju, Sergipe, Região Nordeste, 49025-040, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>GPAC0241.JPG</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-11 17:27:19</t>
+        </is>
+      </c>
+      <c r="C48" s="1" t="n">
+        <v>-10.9459</v>
+      </c>
+      <c r="D48" s="1" t="n">
+        <v>-37.0511</v>
+      </c>
+      <c r="E48" s="1" t="inlineStr">
+        <is>
+          <t>Avenida Paulo Barreto de Menezes, Jardins, Aracaju, Região Geográfica Imediata de Aracaju, Região Geográfica Intermediária de Aracaju, Sergipe, Região Nordeste, 49025-040, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>GPAC0242.JPG</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-11 17:27:29</t>
+        </is>
+      </c>
+      <c r="C49" s="1" t="n">
+        <v>-10.9473</v>
+      </c>
+      <c r="D49" s="1" t="n">
+        <v>-37.0511</v>
+      </c>
+      <c r="E49" s="1" t="inlineStr">
+        <is>
+          <t>Avenida Paulo Barreto de Menezes, Jardins, Aracaju, Região Geográfica Imediata de Aracaju, Região Geográfica Intermediária de Aracaju, Sergipe, Região Nordeste, 49025-040, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>GPAC0243.JPG</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-11 17:27:39</t>
+        </is>
+      </c>
+      <c r="C50" s="1" t="n">
+        <v>-10.9488</v>
+      </c>
+      <c r="D50" s="1" t="n">
+        <v>-37.0513</v>
+      </c>
+      <c r="E50" s="1" t="inlineStr">
+        <is>
+          <t>Avenida Paulo Barreto de Menezes, Jardins, Aracaju, Região Geográfica Imediata de Aracaju, Região Geográfica Intermediária de Aracaju, Sergipe, Região Nordeste, 49025-040, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>GPAC0244.JPG</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-11 17:27:49</t>
+        </is>
+      </c>
+      <c r="C51" s="1" t="n">
+        <v>-10.95</v>
+      </c>
+      <c r="D51" s="1" t="n">
+        <v>-37.0516</v>
+      </c>
+      <c r="E51" s="1" t="inlineStr">
+        <is>
+          <t>EMBRAPA, 3250, Avenida Paulo Barreto de Menezes, Jardins, Aracaju, Região Geográfica Imediata de Aracaju, Região Geográfica Intermediária de Aracaju, Sergipe, Região Nordeste, 49025-040, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>GPAC0245.JPG</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-11 17:27:59</t>
+        </is>
+      </c>
+      <c r="C52" s="1" t="n">
+        <v>-10.9513</v>
+      </c>
+      <c r="D52" s="1" t="n">
+        <v>-37.0519</v>
+      </c>
+      <c r="E52" s="1" t="inlineStr">
+        <is>
+          <t>EMBRAPA, 3250, Avenida Paulo Barreto de Menezes, Jardins, Aracaju, Região Geográfica Imediata de Aracaju, Região Geográfica Intermediária de Aracaju, Sergipe, Região Nordeste, 49025-040, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>GPAC0246.JPG</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-11 17:28:09</t>
+        </is>
+      </c>
+      <c r="C53" s="1" t="n">
+        <v>-10.9526</v>
+      </c>
+      <c r="D53" s="1" t="n">
+        <v>-37.0522</v>
+      </c>
+      <c r="E53" s="1" t="inlineStr">
+        <is>
+          <t>3486, Avenida Paulo Barreto de Menezes, Jardins, Aracaju, Região Geográfica Imediata de Aracaju, Região Geográfica Intermediária de Aracaju, Sergipe, Região Nordeste, 49025-040, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>GPAC0247.JPG</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-11 17:28:19</t>
+        </is>
+      </c>
+      <c r="C54" s="1" t="n">
+        <v>-10.9534</v>
+      </c>
+      <c r="D54" s="1" t="n">
+        <v>-37.0524</v>
+      </c>
+      <c r="E54" s="1" t="inlineStr">
+        <is>
+          <t>3486, Avenida Paulo Barreto de Menezes, Jardins, Aracaju, Região Geográfica Imediata de Aracaju, Região Geográfica Intermediária de Aracaju, Sergipe, Região Nordeste, 49025-040, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>GPAC0248.JPG</t>
+        </is>
+      </c>
+      <c r="B55" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-11 17:28:29</t>
+        </is>
+      </c>
+      <c r="C55" s="1" t="n">
+        <v>-10.9534</v>
+      </c>
+      <c r="D55" s="1" t="n">
+        <v>-37.0524</v>
+      </c>
+      <c r="E55" s="1" t="inlineStr">
+        <is>
+          <t>3486, Avenida Paulo Barreto de Menezes, Jardins, Aracaju, Região Geográfica Imediata de Aracaju, Região Geográfica Intermediária de Aracaju, Sergipe, Região Nordeste, 49025-040, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>GPAC0249.JPG</t>
+        </is>
+      </c>
+      <c r="B56" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-11 17:28:39</t>
+        </is>
+      </c>
+      <c r="C56" s="1" t="n">
+        <v>-10.9534</v>
+      </c>
+      <c r="D56" s="1" t="n">
+        <v>-37.0524</v>
+      </c>
+      <c r="E56" s="1" t="inlineStr">
+        <is>
+          <t>3486, Avenida Paulo Barreto de Menezes, Jardins, Aracaju, Região Geográfica Imediata de Aracaju, Região Geográfica Intermediária de Aracaju, Sergipe, Região Nordeste, 49025-040, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>GPAC0250.JPG</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-11 17:28:49</t>
+        </is>
+      </c>
+      <c r="C57" s="1" t="n">
+        <v>-10.9534</v>
+      </c>
+      <c r="D57" s="1" t="n">
+        <v>-37.0524</v>
+      </c>
+      <c r="E57" s="1" t="inlineStr">
+        <is>
+          <t>3486, Avenida Paulo Barreto de Menezes, Jardins, Aracaju, Região Geográfica Imediata de Aracaju, Região Geográfica Intermediária de Aracaju, Sergipe, Região Nordeste, 49025-040, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>GPAC0251.JPG</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-11 17:28:59</t>
+        </is>
+      </c>
+      <c r="C58" s="1" t="n">
+        <v>-10.9535</v>
+      </c>
+      <c r="D58" s="1" t="n">
+        <v>-37.0524</v>
+      </c>
+      <c r="E58" s="1" t="inlineStr">
+        <is>
+          <t>3486, Avenida Paulo Barreto de Menezes, Jardins, Aracaju, Região Geográfica Imediata de Aracaju, Região Geográfica Intermediária de Aracaju, Sergipe, Região Nordeste, 49025-040, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>GPAC0252.JPG</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-11 17:29:09</t>
+        </is>
+      </c>
+      <c r="C59" s="1" t="n">
+        <v>-10.9539</v>
+      </c>
+      <c r="D59" s="1" t="n">
+        <v>-37.0526</v>
+      </c>
+      <c r="E59" s="1" t="inlineStr">
+        <is>
+          <t>Mansão Seixas Dórea, 3558, Avenida Paulo Barreto de Menezes, Jardins, Aracaju, Região Geográfica Imediata de Aracaju, Região Geográfica Intermediária de Aracaju, Sergipe, Região Nordeste, 49025-040, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>GPAC0253.JPG</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-11 17:29:19</t>
+        </is>
+      </c>
+      <c r="C60" s="1" t="n">
+        <v>-10.9547</v>
+      </c>
+      <c r="D60" s="1" t="n">
+        <v>-37.053</v>
+      </c>
+      <c r="E60" s="1" t="inlineStr">
+        <is>
+          <t>3598, Avenida Paulo Barreto de Menezes, Jardins, Aracaju, Região Geográfica Imediata de Aracaju, Região Geográfica Intermediária de Aracaju, Sergipe, Região Nordeste, 49025-040, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>GPAC0254.JPG</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-11 17:29:29</t>
+        </is>
+      </c>
+      <c r="C61" s="1" t="n">
+        <v>-10.9556</v>
+      </c>
+      <c r="D61" s="1" t="n">
+        <v>-37.0534</v>
+      </c>
+      <c r="E61" s="1" t="inlineStr">
+        <is>
+          <t>3598, Avenida Paulo Barreto de Menezes, Jardins, Aracaju, Região Geográfica Imediata de Aracaju, Região Geográfica Intermediária de Aracaju, Sergipe, Região Nordeste, 49025-040, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>GPAC0255.JPG</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-11 17:29:39</t>
+        </is>
+      </c>
+      <c r="C62" s="1" t="n">
+        <v>-10.9568</v>
+      </c>
+      <c r="D62" s="1" t="n">
+        <v>-37.0538</v>
+      </c>
+      <c r="E62" s="1" t="inlineStr">
+        <is>
+          <t>Avenida Paulo Barreto de Menezes, Inácio Barbosa, Aracaju, Região Geográfica Imediata de Aracaju, Região Geográfica Intermediária de Aracaju, Sergipe, Região Nordeste, 49025-040, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>GPAC0256.JPG</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-11 17:29:49</t>
+        </is>
+      </c>
+      <c r="C63" s="1" t="n">
+        <v>-10.9583</v>
+      </c>
+      <c r="D63" s="1" t="n">
+        <v>-37.0543</v>
+      </c>
+      <c r="E63" s="1" t="inlineStr">
+        <is>
+          <t>Avenida Paulo Barreto de Menezes, Inácio Barbosa, Aracaju, Região Geográfica Imediata de Aracaju, Região Geográfica Intermediária de Aracaju, Sergipe, Região Nordeste, 49032-350, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>GPAC0257.JPG</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-11 17:29:59</t>
+        </is>
+      </c>
+      <c r="C64" s="1" t="n">
+        <v>-10.9599</v>
+      </c>
+      <c r="D64" s="1" t="n">
+        <v>-37.0548</v>
+      </c>
+      <c r="E64" s="1" t="inlineStr">
+        <is>
+          <t>Avenida Paulo Barreto de Menezes, Senhor do Bomfim, Farolândia, Aracaju, Região Geográfica Imediata de Aracaju, Região Geográfica Intermediária de Aracaju, Sergipe, Região Nordeste, 49032-283, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>GPAC0258.JPG</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-11 17:30:09</t>
+        </is>
+      </c>
+      <c r="C65" s="1" t="n">
+        <v>-10.9611</v>
+      </c>
+      <c r="D65" s="1" t="n">
+        <v>-37.055</v>
+      </c>
+      <c r="E65" s="1" t="inlineStr">
+        <is>
+          <t>Rua Joaquim Martins Fontes, Farolândia, Aracaju, Região Geográfica Imediata de Aracaju, Região Geográfica Intermediária de Aracaju, Sergipe, Região Nordeste, 49032-350, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>GPAC0259.JPG</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-11 17:30:19</t>
+        </is>
+      </c>
+      <c r="C66" s="1" t="n">
+        <v>-10.9616</v>
+      </c>
+      <c r="D66" s="1" t="n">
+        <v>-37.055</v>
+      </c>
+      <c r="E66" s="1" t="inlineStr">
+        <is>
+          <t>Rua Joaquim Martins Fontes, Farolândia, Aracaju, Região Geográfica Imediata de Aracaju, Região Geográfica Intermediária de Aracaju, Sergipe, Região Nordeste, 49032-350, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>GPAC0260.JPG</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-11 17:30:29</t>
+        </is>
+      </c>
+      <c r="C67" s="1" t="n">
+        <v>-10.962</v>
+      </c>
+      <c r="D67" s="1" t="n">
+        <v>-37.055</v>
+      </c>
+      <c r="E67" s="1" t="inlineStr">
+        <is>
+          <t>Mansão Prime Park, 607, Rua Joaquim Martins Fontes, Farolândia, Aracaju, Região Geográfica Imediata de Aracaju, Região Geográfica Intermediária de Aracaju, Sergipe, Região Nordeste, 49030-000, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>GPAC0261.JPG</t>
+        </is>
+      </c>
+      <c r="B68" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-11 17:30:39</t>
+        </is>
+      </c>
+      <c r="C68" s="1" t="n">
+        <v>-10.9622</v>
+      </c>
+      <c r="D68" s="1" t="n">
+        <v>-37.055</v>
+      </c>
+      <c r="E68" s="1" t="inlineStr">
+        <is>
+          <t>Mansão Prime Park, 607, Rua Joaquim Martins Fontes, Farolândia, Aracaju, Região Geográfica Imediata de Aracaju, Região Geográfica Intermediária de Aracaju, Sergipe, Região Nordeste, 49030-000, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>GPAC0262.JPG</t>
+        </is>
+      </c>
+      <c r="B69" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-11 17:30:49</t>
+        </is>
+      </c>
+      <c r="C69" s="1" t="n">
+        <v>-10.9624</v>
+      </c>
+      <c r="D69" s="1" t="n">
+        <v>-37.0551</v>
+      </c>
+      <c r="E69" s="1" t="inlineStr">
+        <is>
+          <t>Rua Joaquim Martins Fontes, Farolândia, Aracaju, Região Geográfica Imediata de Aracaju, Região Geográfica Intermediária de Aracaju, Sergipe, Região Nordeste, 49030-000, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>GPAC0263.JPG</t>
+        </is>
+      </c>
+      <c r="B70" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-11 17:30:59</t>
+        </is>
+      </c>
+      <c r="C70" s="1" t="n">
+        <v>-10.9624</v>
+      </c>
+      <c r="D70" s="1" t="n">
+        <v>-37.0551</v>
+      </c>
+      <c r="E70" s="1" t="inlineStr">
+        <is>
+          <t>Rua Joaquim Martins Fontes, Farolândia, Aracaju, Região Geográfica Imediata de Aracaju, Região Geográfica Intermediária de Aracaju, Sergipe, Região Nordeste, 49030-000, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>GPAD0264.JPG</t>
+        </is>
+      </c>
+      <c r="B71" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-11 17:34:03</t>
+        </is>
+      </c>
+      <c r="C71" s="1" t="n">
+        <v>-10.9618</v>
+      </c>
+      <c r="D71" s="1" t="n">
+        <v>-37.0551</v>
+      </c>
+      <c r="E71" s="1" t="inlineStr">
+        <is>
+          <t>Rua Tenente Antônio Fontes Pitanga, Farolândia, Aracaju, Região Geográfica Imediata de Aracaju, Região Geográfica Intermediária de Aracaju, Sergipe, Região Nordeste, 49030-000, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>GPAD0265.JPG</t>
+        </is>
+      </c>
+      <c r="B72" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-11 17:34:13</t>
+        </is>
+      </c>
+      <c r="C72" s="1" t="n">
+        <v>-10.9618</v>
+      </c>
+      <c r="D72" s="1" t="n">
+        <v>-37.0551</v>
+      </c>
+      <c r="E72" s="1" t="inlineStr">
+        <is>
+          <t>Rua Tenente Antônio Fontes Pitanga, Farolândia, Aracaju, Região Geográfica Imediata de Aracaju, Região Geográfica Intermediária de Aracaju, Sergipe, Região Nordeste, 49030-000, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>GPAD0266.JPG</t>
+        </is>
+      </c>
+      <c r="B73" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-11 17:34:23</t>
+        </is>
+      </c>
+      <c r="C73" s="1" t="n">
+        <v>-10.9618</v>
+      </c>
+      <c r="D73" s="1" t="n">
+        <v>-37.0551</v>
+      </c>
+      <c r="E73" s="1" t="inlineStr">
+        <is>
+          <t>Rua Tenente Antônio Fontes Pitanga, Farolândia, Aracaju, Região Geográfica Imediata de Aracaju, Região Geográfica Intermediária de Aracaju, Sergipe, Região Nordeste, 49030-000, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>GPAD0267.JPG</t>
+        </is>
+      </c>
+      <c r="B74" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-11 17:34:33</t>
+        </is>
+      </c>
+      <c r="C74" s="1" t="n">
+        <v>-10.9618</v>
+      </c>
+      <c r="D74" s="1" t="n">
+        <v>-37.0552</v>
+      </c>
+      <c r="E74" s="1" t="inlineStr">
+        <is>
+          <t>Rua Tenente Antônio Fontes Pitanga, Farolândia, Aracaju, Região Geográfica Imediata de Aracaju, Região Geográfica Intermediária de Aracaju, Sergipe, Região Nordeste, 49030-000, Brasil</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>GPAD0268.JPG</t>
+        </is>
+      </c>
+      <c r="B75" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-11 17:34:43</t>
+        </is>
+      </c>
+      <c r="C75" s="1" t="n">
+        <v>-10.9619</v>
+      </c>
+      <c r="D75" s="1" t="n">
+        <v>-37.0552</v>
+      </c>
+      <c r="E75" s="1" t="inlineStr">
+        <is>
+          <t>Rua Tenente Antônio Fontes Pitanga, Farolândia, Aracaju, Região Geográfica Imediata de Aracaju, Região Geográfica Intermediária de Aracaju, Sergipe, Região Nordeste, 49030-000, Brasil</t>
         </is>
       </c>
     </row>
